--- a/results/pvalue_SIDER_all_transporter_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_all_transporter_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.234</t>
+          <t>8.792</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.053</t>
+          <t>7.974</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.606</t>
+          <t>7.205</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.348</t>
+          <t>5.182</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>42.078</t>
+          <t>42.079</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>42.854</t>
+          <t>42.855</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.315</t>
+          <t>46.316</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39.285</t>
+          <t>39.286</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>28.519</t>
+          <t>31.452</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
